--- a/2022/Symphony/JUNE/22.06.2022/MC Bank Statement June-2022.xlsx
+++ b/2022/Symphony/JUNE/22.06.2022/MC Bank Statement June-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="265">
   <si>
     <t>Date</t>
   </si>
@@ -519,9 +519,6 @@
   </si>
   <si>
     <t>05.04.2022</t>
-  </si>
-  <si>
-    <t>Singra</t>
   </si>
   <si>
     <t>Molla Electronics</t>
@@ -5133,7 +5130,7 @@
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
       <c r="A3" s="322"/>
       <c r="B3" s="320" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="320"/>
       <c r="D3" s="320"/>
@@ -5190,7 +5187,7 @@
     <row r="7" spans="1:7">
       <c r="A7" s="322"/>
       <c r="B7" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" s="259">
         <v>0</v>
@@ -5208,7 +5205,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="322"/>
       <c r="B8" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" s="259">
         <v>0</v>
@@ -5226,7 +5223,7 @@
     <row r="9" spans="1:7">
       <c r="A9" s="322"/>
       <c r="B9" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" s="259">
         <v>0</v>
@@ -5244,7 +5241,7 @@
     <row r="10" spans="1:7">
       <c r="A10" s="322"/>
       <c r="B10" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C10" s="261">
         <v>600000</v>
@@ -5262,7 +5259,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="322"/>
       <c r="B11" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="259">
         <v>300000</v>
@@ -5280,7 +5277,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="322"/>
       <c r="B12" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C12" s="259">
         <v>200000</v>
@@ -5298,7 +5295,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="322"/>
       <c r="B13" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13" s="259">
         <v>1100000</v>
@@ -5316,7 +5313,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="322"/>
       <c r="B14" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C14" s="259">
         <v>60000</v>
@@ -5334,7 +5331,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="322"/>
       <c r="B15" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C15" s="259">
         <v>0</v>
@@ -5352,7 +5349,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="322"/>
       <c r="B16" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C16" s="259">
         <v>500000</v>
@@ -5370,7 +5367,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="322"/>
       <c r="B17" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C17" s="259">
         <v>800000</v>
@@ -5388,7 +5385,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="322"/>
       <c r="B18" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C18" s="259">
         <v>0</v>
@@ -5406,7 +5403,7 @@
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
       <c r="A19" s="322"/>
       <c r="B19" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C19" s="259">
         <v>500000</v>
@@ -5424,7 +5421,7 @@
     <row r="20" spans="1:7">
       <c r="A20" s="322"/>
       <c r="B20" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C20" s="259">
         <v>1300000</v>
@@ -5442,7 +5439,7 @@
     <row r="21" spans="1:7">
       <c r="A21" s="322"/>
       <c r="B21" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C21" s="259">
         <v>0</v>
@@ -5460,7 +5457,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="322"/>
       <c r="B22" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C22" s="259">
         <v>500000</v>
@@ -5478,7 +5475,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="322"/>
       <c r="B23" s="26" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C23" s="259">
         <v>600000</v>
@@ -5496,7 +5493,7 @@
     <row r="24" spans="1:7">
       <c r="A24" s="322"/>
       <c r="B24" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C24" s="259">
         <v>800000</v>
@@ -5514,7 +5511,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="322"/>
       <c r="B25" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C25" s="259">
         <v>200000</v>
@@ -6317,7 +6314,7 @@
     </row>
     <row r="3" spans="1:24" s="71" customFormat="1" ht="16.5" thickBot="1">
       <c r="A3" s="329" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3" s="330"/>
       <c r="C3" s="330"/>
@@ -6359,16 +6356,16 @@
         <v>36</v>
       </c>
       <c r="F4" s="323" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G4" s="323" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="323" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I4" s="323" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J4" s="323" t="s">
         <v>38</v>
@@ -6380,10 +6377,10 @@
         <v>40</v>
       </c>
       <c r="M4" s="323" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N4" s="323" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O4" s="325" t="s">
         <v>41</v>
@@ -6429,7 +6426,7 @@
     </row>
     <row r="6" spans="1:24" s="13" customFormat="1">
       <c r="A6" s="79" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B6" s="80">
         <v>500</v>
@@ -6467,7 +6464,7 @@
     </row>
     <row r="7" spans="1:24" s="13" customFormat="1">
       <c r="A7" s="79" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B7" s="80">
         <v>1000</v>
@@ -6507,7 +6504,7 @@
     </row>
     <row r="8" spans="1:24" s="13" customFormat="1">
       <c r="A8" s="79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8" s="87">
         <v>500</v>
@@ -6549,7 +6546,7 @@
     </row>
     <row r="9" spans="1:24" s="13" customFormat="1">
       <c r="A9" s="79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B9" s="87">
         <v>1000</v>
@@ -6587,7 +6584,7 @@
     </row>
     <row r="10" spans="1:24" s="13" customFormat="1">
       <c r="A10" s="79" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" s="87">
         <v>500</v>
@@ -6631,7 +6628,7 @@
     </row>
     <row r="11" spans="1:24" s="13" customFormat="1">
       <c r="A11" s="79" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B11" s="87">
         <v>500</v>
@@ -6669,7 +6666,7 @@
     </row>
     <row r="12" spans="1:24" s="13" customFormat="1">
       <c r="A12" s="79" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" s="87">
         <v>1000</v>
@@ -6711,7 +6708,7 @@
     </row>
     <row r="13" spans="1:24" s="13" customFormat="1">
       <c r="A13" s="79" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B13" s="87"/>
       <c r="C13" s="80"/>
@@ -6747,7 +6744,7 @@
     </row>
     <row r="14" spans="1:24" s="13" customFormat="1">
       <c r="A14" s="79" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B14" s="87"/>
       <c r="C14" s="80"/>
@@ -6787,7 +6784,7 @@
     </row>
     <row r="15" spans="1:24" s="13" customFormat="1">
       <c r="A15" s="79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B15" s="87">
         <v>2000</v>
@@ -6827,7 +6824,7 @@
     </row>
     <row r="16" spans="1:24" s="13" customFormat="1">
       <c r="A16" s="79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B16" s="87"/>
       <c r="C16" s="80"/>
@@ -6863,7 +6860,7 @@
     </row>
     <row r="17" spans="1:23" s="13" customFormat="1">
       <c r="A17" s="79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B17" s="87"/>
       <c r="C17" s="80">
@@ -6905,7 +6902,7 @@
     </row>
     <row r="18" spans="1:23" s="13" customFormat="1">
       <c r="A18" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" s="87">
         <v>2000</v>
@@ -6945,7 +6942,7 @@
     </row>
     <row r="19" spans="1:23" s="13" customFormat="1">
       <c r="A19" s="79" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B19" s="87"/>
       <c r="C19" s="80"/>
@@ -6983,7 +6980,7 @@
     </row>
     <row r="20" spans="1:23" s="13" customFormat="1">
       <c r="A20" s="79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B20" s="87"/>
       <c r="C20" s="80"/>
@@ -7021,7 +7018,7 @@
     </row>
     <row r="21" spans="1:23" s="13" customFormat="1">
       <c r="A21" s="79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B21" s="87">
         <v>1000</v>
@@ -7055,7 +7052,7 @@
     </row>
     <row r="22" spans="1:23" s="13" customFormat="1">
       <c r="A22" s="79" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B22" s="87">
         <v>1000</v>
@@ -7095,7 +7092,7 @@
     </row>
     <row r="23" spans="1:23" s="95" customFormat="1">
       <c r="A23" s="79" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B23" s="87"/>
       <c r="C23" s="80"/>
@@ -7127,7 +7124,7 @@
     </row>
     <row r="24" spans="1:23" s="13" customFormat="1">
       <c r="A24" s="79" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B24" s="87">
         <v>1000</v>
@@ -9521,11 +9518,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9540,6 +9532,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9552,8 +9549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9682,7 +9679,7 @@
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
       <c r="A2" s="345" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="346"/>
       <c r="C2" s="346"/>
@@ -9997,7 +9994,7 @@
     </row>
     <row r="5" spans="1:97">
       <c r="A5" s="188" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B5" s="52">
         <v>119060</v>
@@ -10107,7 +10104,7 @@
     </row>
     <row r="6" spans="1:97">
       <c r="A6" s="189" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B6" s="53">
         <v>226910</v>
@@ -10217,7 +10214,7 @@
     </row>
     <row r="7" spans="1:97">
       <c r="A7" s="189" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B7" s="53">
         <v>270180</v>
@@ -10327,7 +10324,7 @@
     </row>
     <row r="8" spans="1:97">
       <c r="A8" s="189" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B8" s="53">
         <v>221780</v>
@@ -10437,7 +10434,7 @@
     </row>
     <row r="9" spans="1:97">
       <c r="A9" s="189" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" s="53">
         <v>243380</v>
@@ -10547,7 +10544,7 @@
     </row>
     <row r="10" spans="1:97">
       <c r="A10" s="189" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B10" s="53">
         <v>319030</v>
@@ -10657,7 +10654,7 @@
     </row>
     <row r="11" spans="1:97">
       <c r="A11" s="189" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" s="53">
         <v>384330</v>
@@ -10767,7 +10764,7 @@
     </row>
     <row r="12" spans="1:97">
       <c r="A12" s="189" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12" s="53">
         <v>218980</v>
@@ -10877,7 +10874,7 @@
     </row>
     <row r="13" spans="1:97">
       <c r="A13" s="189" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B13" s="53">
         <v>461880</v>
@@ -10987,7 +10984,7 @@
     </row>
     <row r="14" spans="1:97">
       <c r="A14" s="189" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14" s="53">
         <v>374110</v>
@@ -11097,7 +11094,7 @@
     </row>
     <row r="15" spans="1:97">
       <c r="A15" s="189" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B15" s="53">
         <v>202590</v>
@@ -11207,7 +11204,7 @@
     </row>
     <row r="16" spans="1:97">
       <c r="A16" s="189" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B16" s="53">
         <v>529060</v>
@@ -11317,7 +11314,7 @@
     </row>
     <row r="17" spans="1:97">
       <c r="A17" s="189" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B17" s="53">
         <v>418510</v>
@@ -11427,7 +11424,7 @@
     </row>
     <row r="18" spans="1:97">
       <c r="A18" s="189" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B18" s="53">
         <v>503570</v>
@@ -11537,7 +11534,7 @@
     </row>
     <row r="19" spans="1:97">
       <c r="A19" s="189" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B19" s="53">
         <v>331070</v>
@@ -11647,7 +11644,7 @@
     </row>
     <row r="20" spans="1:97">
       <c r="A20" s="189" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B20" s="53">
         <v>309160</v>
@@ -11757,7 +11754,7 @@
     </row>
     <row r="21" spans="1:97">
       <c r="A21" s="189" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B21" s="53">
         <v>424270</v>
@@ -11867,7 +11864,7 @@
     </row>
     <row r="22" spans="1:97">
       <c r="A22" s="189" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B22" s="53">
         <v>303270</v>
@@ -11977,20 +11974,20 @@
     </row>
     <row r="23" spans="1:97">
       <c r="A23" s="189" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B23" s="53">
         <v>384440</v>
       </c>
       <c r="C23" s="56">
-        <v>341480</v>
+        <v>349180</v>
       </c>
       <c r="D23" s="53">
         <v>1560</v>
       </c>
       <c r="E23" s="53">
         <f t="shared" si="1"/>
-        <v>343040</v>
+        <v>350740</v>
       </c>
       <c r="F23" s="238"/>
       <c r="G23" s="250"/>
@@ -13013,7 +13010,7 @@
       </c>
       <c r="C33" s="264">
         <f>SUM(C5:C32)</f>
-        <v>7133960</v>
+        <v>7141660</v>
       </c>
       <c r="D33" s="263">
         <f>SUM(D5:D32)</f>
@@ -13021,11 +13018,11 @@
       </c>
       <c r="E33" s="263">
         <f>SUM(E5:E32)</f>
-        <v>7172310</v>
+        <v>7180010</v>
       </c>
       <c r="F33" s="263">
         <f>B33-E33</f>
-        <v>-926730</v>
+        <v>-934430</v>
       </c>
       <c r="G33" s="265"/>
       <c r="H33" s="145"/>
@@ -13436,7 +13433,7 @@
         <v>97</v>
       </c>
       <c r="B37" s="286" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C37" s="134" t="s">
         <v>121</v>
@@ -13445,7 +13442,7 @@
         <v>8240</v>
       </c>
       <c r="E37" s="277" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F37" s="140"/>
       <c r="G37" s="145"/>
@@ -13654,16 +13651,16 @@
         <v>97</v>
       </c>
       <c r="B39" s="62" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" s="123" t="s">
         <v>241</v>
-      </c>
-      <c r="C39" s="123" t="s">
-        <v>242</v>
       </c>
       <c r="D39" s="214">
         <v>1000</v>
       </c>
       <c r="E39" s="183" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F39" s="138"/>
       <c r="G39" s="145"/>
@@ -13772,7 +13769,7 @@
         <v>2000</v>
       </c>
       <c r="E40" s="182" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F40" s="138"/>
       <c r="G40" s="151"/>
@@ -13872,16 +13869,16 @@
         <v>97</v>
       </c>
       <c r="B41" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="C41" s="123" t="s">
         <v>264</v>
-      </c>
-      <c r="C41" s="123" t="s">
-        <v>265</v>
       </c>
       <c r="D41" s="214">
         <v>9630</v>
       </c>
       <c r="E41" s="182" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F41" s="143"/>
       <c r="G41" s="152"/>
@@ -14414,7 +14411,7 @@
         <v>404320</v>
       </c>
       <c r="E46" s="273" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F46" s="137"/>
       <c r="G46" s="144"/>
@@ -14428,7 +14425,7 @@
         <v>647410</v>
       </c>
       <c r="K46" s="134" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L46" s="201">
         <v>647410</v>
@@ -14536,7 +14533,7 @@
         <v>185000</v>
       </c>
       <c r="E47" s="184" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F47" s="138"/>
       <c r="G47" s="144"/>
@@ -14550,7 +14547,7 @@
         <v>290000</v>
       </c>
       <c r="K47" s="56" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L47" s="135">
         <v>290000</v>
@@ -14658,7 +14655,7 @@
         <v>288900</v>
       </c>
       <c r="E48" s="186" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F48" s="138"/>
       <c r="G48" s="144"/>
@@ -14672,7 +14669,7 @@
         <v>360900</v>
       </c>
       <c r="K48" s="177" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L48" s="135">
         <v>360900</v>
@@ -14780,7 +14777,7 @@
         <v>200000</v>
       </c>
       <c r="E49" s="184" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F49" s="138"/>
       <c r="G49" s="144"/>
@@ -14794,7 +14791,7 @@
         <v>509750</v>
       </c>
       <c r="K49" s="177" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L49" s="135">
         <v>509750</v>
@@ -14902,7 +14899,7 @@
         <v>66190</v>
       </c>
       <c r="E50" s="186" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F50" s="138"/>
       <c r="G50" s="144"/>
@@ -14916,7 +14913,7 @@
         <v>153780</v>
       </c>
       <c r="K50" s="176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L50" s="135">
         <v>153780</v>
@@ -15038,7 +15035,7 @@
         <v>66190</v>
       </c>
       <c r="K51" s="177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L51" s="135">
         <v>66190</v>
@@ -15137,7 +15134,7 @@
         <v>103</v>
       </c>
       <c r="B52" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C52" s="123">
         <v>1725821212</v>
@@ -15146,7 +15143,7 @@
         <v>65900</v>
       </c>
       <c r="E52" s="186" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F52" s="138"/>
       <c r="G52" s="144"/>
@@ -15268,7 +15265,7 @@
         <v>87210</v>
       </c>
       <c r="E53" s="184" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F53" s="138"/>
       <c r="G53" s="144"/>
@@ -15282,7 +15279,7 @@
         <v>72000</v>
       </c>
       <c r="K53" s="177" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L53" s="135">
         <v>72000</v>
@@ -15378,17 +15375,17 @@
     </row>
     <row r="54" spans="1:97">
       <c r="A54" s="232" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" s="58" t="s">
         <v>239</v>
-      </c>
-      <c r="B54" s="58" t="s">
-        <v>240</v>
       </c>
       <c r="C54" s="123"/>
       <c r="D54" s="216">
         <v>18340</v>
       </c>
       <c r="E54" s="185" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F54" s="138"/>
       <c r="G54" s="144"/>
@@ -15402,7 +15399,7 @@
         <v>61490</v>
       </c>
       <c r="K54" s="177" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L54" s="135">
         <v>61490</v>
@@ -15818,7 +15815,7 @@
         <v>66000</v>
       </c>
       <c r="E58" s="306" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F58" s="138"/>
       <c r="G58" s="144"/>
@@ -15832,7 +15829,7 @@
         <v>76000</v>
       </c>
       <c r="K58" s="177" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L58" s="135">
         <v>76000</v>
@@ -16062,7 +16059,7 @@
         <v>16110</v>
       </c>
       <c r="E60" s="308" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F60" s="138"/>
       <c r="G60" s="144"/>
@@ -16306,7 +16303,7 @@
         <v>17800</v>
       </c>
       <c r="E62" s="306" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F62" s="137"/>
       <c r="G62" s="144"/>
@@ -16672,7 +16669,7 @@
         <v>26300</v>
       </c>
       <c r="E65" s="306" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F65" s="138"/>
       <c r="G65" s="144"/>
@@ -17036,7 +17033,7 @@
         <v>20000</v>
       </c>
       <c r="E68" s="306" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F68" s="138"/>
       <c r="G68" s="144"/>
@@ -17048,7 +17045,7 @@
         <v>23400</v>
       </c>
       <c r="K68" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L68" s="135">
         <v>23400</v>
@@ -17156,7 +17153,7 @@
         <v>10000</v>
       </c>
       <c r="E69" s="308" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F69" s="163"/>
       <c r="G69" s="144"/>
@@ -17267,14 +17264,14 @@
         <v>96</v>
       </c>
       <c r="B70" s="307" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C70" s="304"/>
       <c r="D70" s="305">
         <v>470</v>
       </c>
       <c r="E70" s="306" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F70" s="138"/>
       <c r="G70" s="144"/>
@@ -17288,7 +17285,7 @@
         <v>10000</v>
       </c>
       <c r="K70" s="176" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L70" s="135">
         <v>10000</v>
@@ -17384,29 +17381,29 @@
     </row>
     <row r="71" spans="1:97">
       <c r="A71" s="302" t="s">
+        <v>261</v>
+      </c>
+      <c r="B71" s="307" t="s">
         <v>262</v>
-      </c>
-      <c r="B71" s="307" t="s">
-        <v>263</v>
       </c>
       <c r="C71" s="304"/>
       <c r="D71" s="305">
         <v>30000</v>
       </c>
       <c r="E71" s="306" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F71" s="140"/>
       <c r="G71" s="144"/>
       <c r="H71" s="197" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I71" s="63"/>
       <c r="J71" s="56">
         <v>16470</v>
       </c>
       <c r="K71" s="123" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L71" s="135">
         <v>16470</v>
@@ -17518,7 +17515,7 @@
         <v>40000</v>
       </c>
       <c r="K72" s="176" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L72" s="135">
         <v>40000</v>
@@ -18248,26 +18245,26 @@
         <v>98</v>
       </c>
       <c r="B79" s="58" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C79" s="123"/>
       <c r="D79" s="216">
         <v>14890</v>
       </c>
       <c r="E79" s="184" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F79" s="138"/>
       <c r="G79" s="144"/>
       <c r="H79" s="194" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I79" s="60"/>
       <c r="J79" s="56">
         <v>14890</v>
       </c>
       <c r="K79" s="177" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L79" s="135">
         <v>14890</v>
@@ -18366,26 +18363,26 @@
         <v>98</v>
       </c>
       <c r="B80" s="58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C80" s="123"/>
       <c r="D80" s="216">
         <v>6640</v>
       </c>
       <c r="E80" s="186" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F80" s="144"/>
       <c r="G80" s="144"/>
       <c r="H80" s="194" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I80" s="60"/>
       <c r="J80" s="56">
         <v>2000</v>
       </c>
       <c r="K80" s="177" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L80" s="135">
         <v>2000</v>
@@ -18493,7 +18490,7 @@
         <v>3520</v>
       </c>
       <c r="E81" s="184" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F81" s="138"/>
       <c r="G81" s="144"/>
@@ -18507,7 +18504,7 @@
         <v>3630</v>
       </c>
       <c r="K81" s="177" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L81" s="135">
         <v>3630</v>
@@ -18613,7 +18610,7 @@
         <v>29160</v>
       </c>
       <c r="E82" s="185" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F82" s="138"/>
       <c r="G82" s="144"/>
@@ -18625,7 +18622,7 @@
         <v>29160</v>
       </c>
       <c r="K82" s="177" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L82" s="135">
         <v>29160</v>
@@ -18724,14 +18721,14 @@
         <v>136</v>
       </c>
       <c r="B83" s="58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C83" s="123"/>
       <c r="D83" s="216">
         <v>15530</v>
       </c>
       <c r="E83" s="185" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F83" s="138"/>
       <c r="G83" s="144"/>
@@ -18743,7 +18740,7 @@
         <v>36790</v>
       </c>
       <c r="K83" s="177" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L83" s="135">
         <v>36790</v>
@@ -18842,14 +18839,14 @@
         <v>136</v>
       </c>
       <c r="B84" s="58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C84" s="123"/>
       <c r="D84" s="216">
         <v>10000</v>
       </c>
       <c r="E84" s="186" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F84" s="284"/>
       <c r="G84" s="144"/>
@@ -18959,17 +18956,17 @@
     </row>
     <row r="85" spans="1:97">
       <c r="A85" s="233" t="s">
+        <v>216</v>
+      </c>
+      <c r="B85" s="58" t="s">
         <v>217</v>
-      </c>
-      <c r="B85" s="58" t="s">
-        <v>218</v>
       </c>
       <c r="C85" s="123"/>
       <c r="D85" s="216">
         <v>12190</v>
       </c>
       <c r="E85" s="184" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F85" s="138"/>
       <c r="G85" s="144"/>
@@ -18981,7 +18978,7 @@
         <v>10000</v>
       </c>
       <c r="K85" s="177" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L85" s="135">
         <v>10000</v>
@@ -19101,7 +19098,7 @@
         <v>20080</v>
       </c>
       <c r="K86" s="177" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L86" s="135">
         <v>20080</v>
@@ -19207,19 +19204,19 @@
         <v>10000</v>
       </c>
       <c r="E87" s="185" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F87" s="138"/>
       <c r="G87" s="144"/>
       <c r="H87" s="194" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I87" s="60"/>
       <c r="J87" s="56">
         <v>28210</v>
       </c>
       <c r="K87" s="177" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L87" s="135">
         <v>28210</v>
@@ -19325,7 +19322,7 @@
         <v>20080</v>
       </c>
       <c r="E88" s="186" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F88" s="287"/>
       <c r="G88" s="144"/>
@@ -19339,7 +19336,7 @@
         <v>290000</v>
       </c>
       <c r="K88" s="177" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L88" s="135">
         <v>290000</v>
@@ -19438,14 +19435,14 @@
         <v>94</v>
       </c>
       <c r="B89" s="124" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C89" s="123"/>
       <c r="D89" s="216">
         <v>18000</v>
       </c>
       <c r="E89" s="185" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F89" s="138"/>
       <c r="G89" s="144"/>
@@ -19457,7 +19454,7 @@
         <v>14900</v>
       </c>
       <c r="K89" s="56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L89" s="135">
         <v>14900</v>
@@ -19565,7 +19562,7 @@
         <v>250000</v>
       </c>
       <c r="E90" s="185" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F90" s="138"/>
       <c r="G90" s="144"/>
@@ -19579,7 +19576,7 @@
         <v>42730</v>
       </c>
       <c r="K90" s="177" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L90" s="135">
         <v>42730</v>
@@ -19678,26 +19675,26 @@
         <v>94</v>
       </c>
       <c r="B91" s="58" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C91" s="123"/>
       <c r="D91" s="216">
         <v>10000</v>
       </c>
       <c r="E91" s="184" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F91" s="144"/>
       <c r="G91" s="144"/>
       <c r="H91" s="181" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I91" s="61"/>
       <c r="J91" s="175">
         <v>3000</v>
       </c>
       <c r="K91" s="176" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L91" s="135">
         <v>3000</v>
@@ -19793,29 +19790,29 @@
     </row>
     <row r="92" spans="1:97">
       <c r="A92" s="233" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="B92" s="58" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="C92" s="123"/>
       <c r="D92" s="216">
-        <v>60020</v>
-      </c>
-      <c r="E92" s="186" t="s">
-        <v>234</v>
+        <v>1010</v>
+      </c>
+      <c r="E92" s="185" t="s">
+        <v>253</v>
       </c>
       <c r="F92" s="287"/>
       <c r="G92" s="144"/>
       <c r="H92" s="194" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I92" s="60"/>
       <c r="J92" s="56">
         <v>42080</v>
       </c>
       <c r="K92" s="177" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L92" s="135">
         <v>42080</v>
@@ -19911,29 +19908,29 @@
     </row>
     <row r="93" spans="1:97">
       <c r="A93" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="B93" s="58" t="s">
         <v>235</v>
-      </c>
-      <c r="B93" s="58" t="s">
-        <v>256</v>
       </c>
       <c r="C93" s="123"/>
       <c r="D93" s="216">
-        <v>22440</v>
-      </c>
-      <c r="E93" s="184" t="s">
-        <v>255</v>
+        <v>60020</v>
+      </c>
+      <c r="E93" s="186" t="s">
+        <v>233</v>
       </c>
       <c r="F93" s="138"/>
       <c r="G93" s="144"/>
       <c r="H93" s="194" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I93" s="60"/>
       <c r="J93" s="56">
         <v>5000</v>
       </c>
       <c r="K93" s="56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L93" s="135">
         <v>5000</v>
@@ -20029,16 +20026,16 @@
     </row>
     <row r="94" spans="1:97">
       <c r="A94" s="233" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="B94" s="58" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="C94" s="123"/>
       <c r="D94" s="216">
-        <v>21000</v>
-      </c>
-      <c r="E94" s="186" t="s">
+        <v>22440</v>
+      </c>
+      <c r="E94" s="184" t="s">
         <v>254</v>
       </c>
       <c r="F94" s="287"/>
@@ -20051,7 +20048,7 @@
         <v>50000</v>
       </c>
       <c r="K94" s="177" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L94" s="135">
         <v>50000</v>
@@ -20150,21 +20147,19 @@
         <v>125</v>
       </c>
       <c r="B95" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="C95" s="123">
-        <v>1789726772</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C95" s="123"/>
       <c r="D95" s="216">
-        <v>38230</v>
-      </c>
-      <c r="E95" s="185" t="s">
-        <v>221</v>
+        <v>21000</v>
+      </c>
+      <c r="E95" s="186" t="s">
+        <v>253</v>
       </c>
       <c r="F95" s="144"/>
       <c r="G95" s="144"/>
       <c r="H95" s="181" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I95" s="61"/>
       <c r="J95" s="175">
@@ -20270,26 +20265,28 @@
         <v>125</v>
       </c>
       <c r="B96" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="C96" s="123"/>
+        <v>126</v>
+      </c>
+      <c r="C96" s="123">
+        <v>1789726772</v>
+      </c>
       <c r="D96" s="216">
-        <v>5000</v>
-      </c>
-      <c r="E96" s="186" t="s">
-        <v>254</v>
+        <v>38230</v>
+      </c>
+      <c r="E96" s="185" t="s">
+        <v>220</v>
       </c>
       <c r="F96" s="144"/>
       <c r="G96" s="144"/>
       <c r="H96" s="194" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I96" s="60"/>
       <c r="J96" s="56">
         <v>9000</v>
       </c>
       <c r="K96" s="123" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L96" s="135">
         <v>9000</v>
@@ -20385,29 +20382,29 @@
     </row>
     <row r="97" spans="1:97">
       <c r="A97" s="233" t="s">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="B97" s="58" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="C97" s="123"/>
       <c r="D97" s="216">
-        <v>37480</v>
+        <v>5000</v>
       </c>
       <c r="E97" s="186" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F97" s="144"/>
       <c r="G97" s="144"/>
       <c r="H97" s="194" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I97" s="60"/>
       <c r="J97" s="56">
         <v>56190</v>
       </c>
       <c r="K97" s="56" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L97" s="135">
         <v>56190</v>
@@ -20503,29 +20500,29 @@
     </row>
     <row r="98" spans="1:97">
       <c r="A98" s="233" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="B98" s="58" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C98" s="123"/>
       <c r="D98" s="216">
-        <v>40000</v>
-      </c>
-      <c r="E98" s="185" t="s">
-        <v>248</v>
+        <v>37480</v>
+      </c>
+      <c r="E98" s="186" t="s">
+        <v>254</v>
       </c>
       <c r="F98" s="144"/>
       <c r="G98" s="144"/>
       <c r="H98" s="181" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I98" s="61"/>
       <c r="J98" s="175">
         <v>42720</v>
       </c>
       <c r="K98" s="176" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L98" s="135">
         <v>42720</v>
@@ -20621,17 +20618,17 @@
     </row>
     <row r="99" spans="1:97">
       <c r="A99" s="233" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B99" s="58" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="C99" s="123"/>
       <c r="D99" s="216">
-        <v>7700</v>
+        <v>40000</v>
       </c>
       <c r="E99" s="185" t="s">
-        <v>161</v>
+        <v>247</v>
       </c>
       <c r="F99" s="144"/>
       <c r="G99" s="144"/>
@@ -20645,7 +20642,7 @@
         <v>6500</v>
       </c>
       <c r="K99" s="177" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L99" s="135">
         <v>6500</v>
@@ -20744,14 +20741,14 @@
         <v>145</v>
       </c>
       <c r="B100" s="58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C100" s="123"/>
       <c r="D100" s="216">
         <v>4000</v>
       </c>
       <c r="E100" s="186" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F100" s="144"/>
       <c r="G100" s="144"/>
@@ -20860,19 +20857,11 @@
       <c r="CS100" s="144"/>
     </row>
     <row r="101" spans="1:97">
-      <c r="A101" s="233" t="s">
-        <v>260</v>
-      </c>
-      <c r="B101" s="58" t="s">
-        <v>261</v>
-      </c>
+      <c r="A101" s="233"/>
+      <c r="B101" s="58"/>
       <c r="C101" s="123"/>
-      <c r="D101" s="216">
-        <v>1010</v>
-      </c>
-      <c r="E101" s="185" t="s">
-        <v>254</v>
-      </c>
+      <c r="D101" s="216"/>
+      <c r="E101" s="185"/>
       <c r="F101" s="144"/>
       <c r="G101" s="144"/>
       <c r="H101" s="181" t="s">
@@ -20885,7 +20874,7 @@
         <v>4000</v>
       </c>
       <c r="K101" s="176" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L101" s="135">
         <v>4000</v>
@@ -20988,7 +20977,7 @@
       <c r="F102" s="144"/>
       <c r="G102" s="144"/>
       <c r="H102" s="181" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I102" s="61" t="s">
         <v>121</v>
@@ -20997,7 +20986,7 @@
         <v>4400</v>
       </c>
       <c r="K102" s="176" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L102" s="135">
         <v>4400</v>
@@ -21100,7 +21089,7 @@
       <c r="F103" s="144"/>
       <c r="G103" s="144"/>
       <c r="H103" s="181" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I103" s="61" t="s">
         <v>121</v>
@@ -21109,7 +21098,7 @@
         <v>2000</v>
       </c>
       <c r="K103" s="176" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L103" s="135">
         <v>2000</v>
@@ -21212,16 +21201,16 @@
       <c r="F104" s="144"/>
       <c r="G104" s="144"/>
       <c r="H104" s="194" t="s">
+        <v>190</v>
+      </c>
+      <c r="I104" s="60" t="s">
         <v>191</v>
-      </c>
-      <c r="I104" s="60" t="s">
-        <v>192</v>
       </c>
       <c r="J104" s="56">
         <v>7740</v>
       </c>
       <c r="K104" s="177" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L104" s="135">
         <v>7740</v>
@@ -21324,14 +21313,14 @@
       <c r="F105" s="144"/>
       <c r="G105" s="144"/>
       <c r="H105" s="194" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I105" s="60"/>
       <c r="J105" s="56">
         <v>200</v>
       </c>
       <c r="K105" s="123" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L105" s="135">
         <v>200</v>
@@ -22461,7 +22450,7 @@
         <v>40000</v>
       </c>
       <c r="E116" s="186" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F116" s="144"/>
       <c r="G116" s="144"/>
@@ -22791,7 +22780,7 @@
       <c r="C119" s="351"/>
       <c r="D119" s="219">
         <f>SUM(D37:D118)</f>
-        <v>2456765</v>
+        <v>2449065</v>
       </c>
       <c r="E119" s="212"/>
       <c r="F119" s="144"/>
@@ -22998,7 +22987,7 @@
       <c r="C121" s="339"/>
       <c r="D121" s="219">
         <f>D119+M121</f>
-        <v>2456765</v>
+        <v>2449065</v>
       </c>
       <c r="E121" s="212"/>
       <c r="F121" s="144"/>
@@ -34206,7 +34195,7 @@
       <c r="L1357" s="51"/>
     </row>
   </sheetData>
-  <sortState ref="A79:E100">
+  <sortState ref="A79:E101">
     <sortCondition ref="A79"/>
   </sortState>
   <mergeCells count="7">
@@ -34232,8 +34221,8 @@
   </sheetPr>
   <dimension ref="A1:Y217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34275,7 +34264,7 @@
     </row>
     <row r="3" spans="1:25" ht="23.25">
       <c r="A3" s="358" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B3" s="359"/>
       <c r="C3" s="359"/>
@@ -34498,14 +34487,14 @@
     </row>
     <row r="10" spans="1:25" ht="21.75">
       <c r="A10" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="256">
         <v>0</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E10" s="254">
         <v>165316</v>
@@ -34533,7 +34522,7 @@
     </row>
     <row r="11" spans="1:25" ht="21.75">
       <c r="A11" s="317" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="318">
         <f>B6-B9-B10</f>
@@ -34564,7 +34553,7 @@
     </row>
     <row r="12" spans="1:25" ht="21.75">
       <c r="A12" s="285" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B12" s="256">
         <v>66020</v>
@@ -34597,7 +34586,7 @@
     </row>
     <row r="13" spans="1:25" ht="21.75">
       <c r="A13" s="311" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B13" s="312">
         <f>B11+B12</f>
@@ -34632,7 +34621,7 @@
       <c r="B14" s="274"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E14" s="252">
         <v>5500</v>
@@ -34660,7 +34649,7 @@
     </row>
     <row r="15" spans="1:25" ht="21.75">
       <c r="A15" s="285" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B15" s="256">
         <v>900000</v>
@@ -34691,7 +34680,7 @@
     </row>
     <row r="16" spans="1:25" ht="21.75">
       <c r="A16" s="285" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B16" s="256">
         <v>1500000</v>
@@ -34885,7 +34874,7 @@
     </row>
     <row r="22" spans="1:25" ht="21.75">
       <c r="A22" s="258" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" s="127">
         <v>26000</v>
@@ -34916,7 +34905,7 @@
     </row>
     <row r="23" spans="1:25" ht="21.75">
       <c r="A23" s="258" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B23" s="127">
         <v>17400</v>
@@ -35028,7 +35017,7 @@
     </row>
     <row r="27" spans="1:25" ht="21.75">
       <c r="A27" s="278" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B27" s="279">
         <v>32400</v>
@@ -35059,14 +35048,14 @@
     </row>
     <row r="28" spans="1:25" ht="21.75">
       <c r="A28" s="278" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B28" s="279">
         <v>21000</v>
       </c>
       <c r="C28" s="280"/>
       <c r="D28" s="281" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E28" s="282">
         <v>33000</v>
@@ -35090,14 +35079,14 @@
     </row>
     <row r="29" spans="1:25" ht="21.75">
       <c r="A29" s="278" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" s="279">
         <v>41000</v>
       </c>
       <c r="C29" s="280"/>
       <c r="D29" s="281" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E29" s="282">
         <v>60020</v>
@@ -35147,14 +35136,14 @@
     </row>
     <row r="31" spans="1:25" ht="21.75">
       <c r="A31" s="278" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B31" s="279">
         <v>36790</v>
       </c>
       <c r="C31" s="280"/>
       <c r="D31" s="281" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E31" s="282">
         <v>28000</v>
@@ -35175,7 +35164,7 @@
     </row>
     <row r="32" spans="1:25" ht="21.75">
       <c r="A32" s="278" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B32" s="279">
         <v>28210</v>
@@ -35211,7 +35200,7 @@
       </c>
       <c r="C33" s="280"/>
       <c r="D33" s="281" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E33" s="282">
         <v>47480</v>
@@ -35240,7 +35229,7 @@
       </c>
       <c r="C34" s="295"/>
       <c r="D34" s="296" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E34" s="297">
         <v>40000</v>
